--- a/DateBase/orders/International Ever Green_2025-11-12.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-12.xlsx
@@ -590,6 +590,9 @@
       <c r="G2" t="str">
         <v>028121581240159</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
